--- a/medicine/Pharmacie/Sanofi_R&D/Sanofi_R&D.xlsx
+++ b/medicine/Pharmacie/Sanofi_R&D/Sanofi_R&D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sanofi R&amp;D est la division recherche et développement de l'entreprise Sanofi. Elle est augmentée de la recherche en biotechnologie des laboratoires de Genzyme et de ses spécialités en thérapie cellulaire, transgénèse, biomatériaux pour traiter les maladies orphelines après son rachat en avril 2011[1].
-1re entreprise de R&amp;D en France en 2010, avec 2,200 milliards d'euros par an[2].
-3e investisseur européen et 9e entreprise de recherche mondiale en R&amp;D en 2010 avec 4,570 milliards d'euros[2]
-Sanofi R&amp;D compte 17 060 employés en 2010, dont 11 353 en Europe[3]
+Sanofi R&amp;D est la division recherche et développement de l'entreprise Sanofi. Elle est augmentée de la recherche en biotechnologie des laboratoires de Genzyme et de ses spécialités en thérapie cellulaire, transgénèse, biomatériaux pour traiter les maladies orphelines après son rachat en avril 2011.
+1re entreprise de R&amp;D en France en 2010, avec 2,200 milliards d'euros par an.
+3e investisseur européen et 9e entreprise de recherche mondiale en R&amp;D en 2010 avec 4,570 milliards d'euros
+Sanofi R&amp;D compte 17 060 employés en 2010, dont 11 353 en Europe
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Histoire de la société</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2024, la division du groupe Sanofi négocie un plan social portant sur 1200 salariés (sur les 11 660 salariés de la division) avec la diminution de la recherche en oncologie. Ce plan social fait suite aux plans sociaux de 2019 et de 2021[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2024, la division du groupe Sanofi négocie un plan social portant sur 1200 salariés (sur les 11 660 salariés de la division) avec la diminution de la recherche en oncologie. Ce plan social fait suite aux plans sociaux de 2019 et de 2021.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Axes de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sanofi R&amp;D est organisée selon les axes thérapeutiques suivants :
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Portefeuille de nouvelles molécules et de vaccins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Deux nouvelles chimiothèques ultramodernes contenant plus d'1,6 million de composés en poudre et plusieurs millions en solution ont été construites en 2010. L'une sur le site R&amp;D de Toulouse[5] et l'autre dans le parc industriel Höchst de Francfort.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux nouvelles chimiothèques ultramodernes contenant plus d'1,6 million de composés en poudre et plusieurs millions en solution ont été construites en 2010. L'une sur le site R&amp;D de Toulouse et l'autre dans le parc industriel Höchst de Francfort.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Laboratoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recherche de Sanofi s'organise au sein de 23 centres de recherche répartis entre l'Europe, l'Amérique du Nord et l'Asie[6]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche de Sanofi s'organise au sein de 23 centres de recherche répartis entre l'Europe, l'Amérique du Nord et l'Asie:
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,21 +660,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>France
-Depuis 2003, partenaire de la chaire Essec-Sanofi-Aventis "Innovation thérapeutique"[26]
-Partenaire de la chaire santé Sciences Po[27]
-Membre fondateur de la fondation de l'université de Bordeaux, en 2010 avec la mise en place d'une chaire "formation ingénieur production biotech"[28]
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Depuis 2003, partenaire de la chaire Essec-Sanofi-Aventis "Innovation thérapeutique"
+Partenaire de la chaire santé Sciences Po
+Membre fondateur de la fondation de l'université de Bordeaux, en 2010 avec la mise en place d'une chaire "formation ingénieur production biotech"
 Membre fondateur de la fondation de l'université de Montpellier
-Membre fondateur de la fondation de l'université de Lyon en 2009[29]
-Membre fondateur de la fondation de l'université d'Auvergne, dès 2008[30]
-Convention avec la faculté de pharmacie de l'université Paris-Saclay et les affaires industrielles de Sanofi en 2010[31]
-Le 17 février 2010, partenaire de l'alliance nationale pour les sciences de la vie et de la santé (aviesan), constituée par le CEA, le CNRS, l’INRA, l’INRIA, l’Inserm, l’Institut Pasteur, l’IRD, la Conférence des présidents d'université et la Conférence des directeurs généraux de centres hospitaliers régionaux et universitaires[32],[33].
-Partenariat conjoint entre Sanofi et le Centre d'immunologie de Marseille-Luminy d'Aix-Marseille Université et du CNRS[34].
-International
-En 2010, accord de partenariat en Recherche et développement avec l'hôpital de la Charité, à Berlin[35].
-Partenariat avec le Center for Biomedical Innovation du MIT, en 2010[36] et avec l'université Harvard[37].
-Dans le domaine de l'oncologie avec la Medical Science Division de l'université d'Oxford[38]
-Partenariat avec le Scripps Genomic Medicine pour la médecine personnalisée[39].</t>
+Membre fondateur de la fondation de l'université de Lyon en 2009
+Membre fondateur de la fondation de l'université d'Auvergne, dès 2008
+Convention avec la faculté de pharmacie de l'université Paris-Saclay et les affaires industrielles de Sanofi en 2010
+Le 17 février 2010, partenaire de l'alliance nationale pour les sciences de la vie et de la santé (aviesan), constituée par le CEA, le CNRS, l’INRA, l’INRIA, l’Inserm, l’Institut Pasteur, l’IRD, la Conférence des présidents d'université et la Conférence des directeurs généraux de centres hospitaliers régionaux et universitaires,.
+Partenariat conjoint entre Sanofi et le Centre d'immunologie de Marseille-Luminy d'Aix-Marseille Université et du CNRS.</t>
         </is>
       </c>
     </row>
@@ -664,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sanofi_R%26D</t>
+          <t>Sanofi_R&amp;D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,15 +699,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Partenariats avec les universités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 2010, accord de partenariat en Recherche et développement avec l'hôpital de la Charité, à Berlin.
+Partenariat avec le Center for Biomedical Innovation du MIT, en 2010 et avec l'université Harvard.
+Dans le domaine de l'oncologie avec la Medical Science Division de l'université d'Oxford
+Partenariat avec le Scripps Genomic Medicine pour la médecine personnalisée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sanofi_R&amp;D</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanofi_R%26D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sanofi R&amp;D et les pôles de compétitivité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'entreprise est impliquée dans 7 pôles de compétitivité dédiés à la santé:
-Projet dScreen, du pôle Alsace BioValley[40]
+Projet dScreen, du pôle Alsace BioValley
 Projet RadiAn, sur la radiosensibilisation et l'angiogenèse, au Cancéropôle de Toulouse
-projet GAP, sur la grippe pandémique et projet Microvax au pôle Lyonbiopôle[41]
+projet GAP, sur la grippe pandémique et projet Microvax au pôle Lyonbiopôle
 TransAl, sur la maladie d'Alzheimer et projet CReMEC sur les cancers, au pôle Medicen en île-de-France
 InnoMaD, test diagnostic du paludisme, projet DiaTrAlsur la maladie d'Alzheimer et projet Cell2Lead sur le criblage et le profilage de candidats sur cellules vivantes au pôle EUROBIOMED
 Partenariat avec la fondation Cœur et Artères, sur la prévention des maladies cardiovasculaires au pôle Nutrition Santé Longévité de Lille
@@ -695,33 +756,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sanofi_R%26D</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sanofi_R%26D</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sanofi_R&amp;D</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanofi_R%26D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Direction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John C. Reed dirige la R&amp;D de Sanofi de 2018 à février 2023. Il quitte alors brusquement l'entreprise, et est remplacé par Dietmar Berger, patron global du développement de la société depuis 2019 après avoir différentes positions à Genentech, Bayer et Amgen[42].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John C. Reed dirige la R&amp;D de Sanofi de 2018 à février 2023. Il quitte alors brusquement l'entreprise, et est remplacé par Dietmar Berger, patron global du développement de la société depuis 2019 après avoir différentes positions à Genentech, Bayer et Amgen.
 </t>
         </is>
       </c>
